--- a/biology/Botanique/Opuntia_megacantha/Opuntia_megacantha.xlsx
+++ b/biology/Botanique/Opuntia_megacantha/Opuntia_megacantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia megacantha est une espèce du genre Opuntia, de la famille des Cactaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia megacantha atteint une hauteur de 4 à 5 mètres. Les sections de tige en forme d'œuf inversé à oblongue sont vertes à légèrement gris-vert. Elles font entre 40 et 60 cm de long, voire plus. Les petites feuilles sont vertes ou violettes. Les petites aréoles brunâtres sont espacées de 4 à 5 cm et portent de petites glochides jaunes. Les 1 à 5 épines blanchâtres et divergentes ont une longueur de 2 à 3 cm.
 Les fleurs jaune à orange atteignent une longueur de 8 cm. Les fruits ont une longueur de 7 à 8 cm.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia megacantha est endémique du Mexique. Il se trouve dans les états de San Luis Potosí, Aguascalientes, Guanajuato und Zacatecas.
 </t>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Mexique, le jus d’Opuntia megacantha est mélangé avec du suif pour fabriquer des bougies[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Mexique, le jus d’Opuntia megacantha est mélangé avec du suif pour fabriquer des bougies.
 </t>
         </is>
       </c>
